--- a/myapp/app/data.xlsx
+++ b/myapp/app/data.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId3" sheetId="1"/>
-    <sheet name="boards" r:id="rId4" sheetId="2"/>
     <sheet name="projects" r:id="rId5" sheetId="3"/>
+    <sheet name="users" r:id="rId6" sheetId="4"/>
+    <sheet name="boards" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="44">
   <si>
     <t>no</t>
   </si>
@@ -188,185 +188,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="E2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="E4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F3"/>
@@ -438,4 +259,183 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/myapp/app/data.xlsx
+++ b/myapp/app/data.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId6" sheetId="9"/>
-    <sheet name="boards" r:id="rId7" sheetId="10"/>
-    <sheet name="projects" r:id="rId5" sheetId="11"/>
+    <sheet name="users" r:id="rId6" sheetId="12"/>
+    <sheet name="boards" r:id="rId7" sheetId="13"/>
+    <sheet name="projects" r:id="rId5" sheetId="14"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="44">
   <si>
     <t>no</t>
   </si>
@@ -188,7 +188,105 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -269,7 +367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -340,102 +438,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>